--- a/biology/Médecine/Auto-anticorps/Auto-anticorps.xlsx
+++ b/biology/Médecine/Auto-anticorps/Auto-anticorps.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un auto-anticorps est un anticorps produit par le système immunitaire et dirigé contre une ou plusieurs protéines de l'individu lui-même. De nombreuses maladies auto-immunes sont dues à la présence de ces auto-anticorps, mais la présence d'auto-anticorps n'est pas nécessairement synonyme d'une telle maladie. En 2003, on recensait plus de deux cents spécimens antigéniques différents[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un auto-anticorps est un anticorps produit par le système immunitaire et dirigé contre une ou plusieurs protéines de l'individu lui-même. De nombreuses maladies auto-immunes sont dues à la présence de ces auto-anticorps, mais la présence d'auto-anticorps n'est pas nécessairement synonyme d'une telle maladie. En 2003, on recensait plus de deux cents spécimens antigéniques différents.
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Classes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>On distingue cinq grandes classes d'auto-anticorps selon leurs antigènes cibles spécifiques comme certaines molécules (ADN, ARN, RNP, SRP, phospholipides, etc.), protéines ou enzymes (synthétases, protéinases, myéloperoxydases, histones, topoisomérases, récepteurs, etc.), structures intracellulaires (cytoplasme, noyau, nucléole, centromère, etc.), tissus et organes.
 Exemples d'auto-anticorps :
 ANCA : les anticorps anticytoplasme des polynucléaires neutrophiles, retrouvés dans des vascularites des petits vaisseaux notamment ;
-les anticorps antinucléaires sont dirigés contre l'ARN, l'ADN et les protéines composant les noyaux des cellules[2],[3]
+les anticorps antinucléaires sont dirigés contre l'ARN, l'ADN et les protéines composant les noyaux des cellules,
 les anti-DNA double brins (natifs) retrouvés dans le lupus érythémateux disséminé ;
 les anti-TPO, retrouvés dans la thyroïdite de Hashimoto ;
 les anti-TRAK, retrouvés dans la maladie de Basedow ;
@@ -537,7 +551,7 @@
 les anti-MBG, retrouvés dans le syndrome de Goodpasture ;
 les anti-GAD/anti-Znt8/anti-IA2, retrouvés dans le diabète de type 1 ;
 les anti-MAG, retrouvés dans les polyneuropathies sensitives démyélinisantes ;
-les anti-aquaporine 4 et anti-MOG, retrouvés dans la neuromyélite optique[4] ;</t>
+les anti-aquaporine 4 et anti-MOG, retrouvés dans la neuromyélite optique ;</t>
         </is>
       </c>
     </row>
